--- a/Documents/Burn_Digital_Game_-_Card_List.xlsx
+++ b/Documents/Burn_Digital_Game_-_Card_List.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Wits\Game Design\Unity Projects\GitHub\DungeonDeckBuilder\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECECE5A8-2FCC-4BCD-A7E3-12CA5FA35B8E}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D1C97BF-F6C7-4CC0-882A-95F724FE4773}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9000" xr2:uid="{D548C7A5-E558-4AAD-9C57-0E65F64AFF18}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -845,8 +845,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6480ED20-FAD2-4A05-B9C2-4B59253F9576}">
   <dimension ref="A1:T184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I34" sqref="I34"/>
+    <sheetView tabSelected="1" topLeftCell="H7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
